--- a/Relatorio.xlsx
+++ b/Relatorio.xlsx
@@ -38,40 +38,51 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="33">
+  <numFmts count="44">
     <numFmt numFmtId="164" formatCode="[$-416]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="d/m;@"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;_(#,##0.00_);&quot;$&quot;\(#,##0.00\);&quot;$&quot;_(0.00_);@_)"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00_);\(#,##0.00\);0.00_);@_)"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0;[Red]\(#,##0.0\)"/>
-    <numFmt numFmtId="171" formatCode="0.000_)"/>
-    <numFmt numFmtId="172" formatCode="&quot;#&quot;\,&quot;#&quot;&quot;#&quot;0.000;[Red]\-&quot;#&quot;\,&quot;#&quot;&quot;#&quot;0.000"/>
-    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="174" formatCode="General_)"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0\ _D_M_-;\-* #,##0\ _D_M_-;_-* &quot;-&quot;\ _D_M_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;\ _z_ł_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_([$€]\ * #,##0.00_);_([$€]\ * \(#,##0.00\);_([$€]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0,000.0"/>
-    <numFmt numFmtId="181" formatCode="0.0%"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="0.0%;\(0.0%\)"/>
-    <numFmt numFmtId="184" formatCode="#,##0.0\x_);\(#,##0.0\x\);#,##0.0\x_);@_)"/>
-    <numFmt numFmtId="185" formatCode="0.0000000000"/>
-    <numFmt numFmtId="186" formatCode="#,##0.0\%_);\(#,##0.0\%\);#,##0.0\%_);@_)"/>
-    <numFmt numFmtId="187" formatCode="0.00%;[Red]\-0.00%"/>
-    <numFmt numFmtId="188" formatCode="0.0%_);\(0.0%\);0.0%_);@_)"/>
-    <numFmt numFmtId="189" formatCode="[Green]\ &quot;Positive&quot;;[Red]\ &quot;Negative&quot;;&quot;...&quot;;&quot;N/A&quot;"/>
-    <numFmt numFmtId="190" formatCode="_-* #,##0\ &quot;DM&quot;_-;\-* #,##0\ &quot;DM&quot;_-;_-* &quot;-&quot;\ &quot;DM&quot;_-;_-@_-"/>
-    <numFmt numFmtId="191" formatCode="_-* #,##0.00\ &quot;DM&quot;_-;\-* #,##0.00\ &quot;DM&quot;_-;_-* &quot;-&quot;??\ &quot;DM&quot;_-;_-@_-"/>
-    <numFmt numFmtId="192" formatCode="_-* #,##0\ &quot;zł&quot;_-;\-* #,##0\ &quot;zł&quot;_-;_-* &quot;-&quot;\ &quot;zł&quot;_-;_-@_-"/>
-    <numFmt numFmtId="193" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
-    <numFmt numFmtId="194" formatCode="#,##0_);[Red]\(#,##0\);\ \ \ \ \ "/>
-    <numFmt numFmtId="195" formatCode="0.0%_);[Red]\(0.0%\)"/>
-    <numFmt numFmtId="196" formatCode="&quot;$&quot;#,##0_);&quot;$&quot;\(#,##0\);\-\ \-"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;R$ &quot;* #.##000_);_(&quot;R$ &quot;* \(#.##000\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;R$ &quot;* #,###.00_);_(&quot;R$ &quot;* \(#,###.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(&quot;R$ &quot;* #.###00_);_(&quot;R$ &quot;* \(#.###00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(&quot;R$ &quot;* #.###,_);_(&quot;R$ &quot;* \(#.###00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(&quot;R$ &quot;* #.##00_);_(&quot;R$ &quot;* \(#.##00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="_(&quot;R$ &quot;* #.#00_);_(&quot;R$ &quot;* \(#.#00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="_(&quot;R$ &quot;* #,#00_);_(&quot;R$ &quot;* \(#,#00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="175" formatCode="_(&quot;R$ &quot;* #.#00_);_(&quot;R$ &quot;* \(#.##00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;R$ &quot;* #.#00_);_(&quot;R$ &quot;* \(#.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;R$ &quot;* #.00_);_(&quot;R$ &quot;* \(#.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;_(#,##0.00_);&quot;$&quot;\(#,##0.00\);&quot;$&quot;_(0.00_);@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_);\(#,##0.00\);0.00_);@_)"/>
+    <numFmt numFmtId="180" formatCode="#,##0.0;[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="181" formatCode="0.000_)"/>
+    <numFmt numFmtId="182" formatCode="&quot;#&quot;\,&quot;#&quot;&quot;#&quot;0.000;[Red]\-&quot;#&quot;\,&quot;#&quot;&quot;#&quot;0.000"/>
+    <numFmt numFmtId="183" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="184" formatCode="General_)"/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0\ _D_M_-;\-* #,##0\ _D_M_-;_-* &quot;-&quot;\ _D_M_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="188" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="189" formatCode="_([$€]\ * #,##0.00_);_([$€]\ * \(#,##0.00\);_([$€]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="190" formatCode="0,000.0"/>
+    <numFmt numFmtId="191" formatCode="0.0%"/>
+    <numFmt numFmtId="192" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="193" formatCode="0.0%;\(0.0%\)"/>
+    <numFmt numFmtId="194" formatCode="#,##0.0\x_);\(#,##0.0\x\);#,##0.0\x_);@_)"/>
+    <numFmt numFmtId="195" formatCode="0.0000000000"/>
+    <numFmt numFmtId="196" formatCode="#,##0.0\%_);\(#,##0.0\%\);#,##0.0\%_);@_)"/>
+    <numFmt numFmtId="197" formatCode="0.00%;[Red]\-0.00%"/>
+    <numFmt numFmtId="198" formatCode="0.0%_);\(0.0%\);0.0%_);@_)"/>
+    <numFmt numFmtId="199" formatCode="[Green]\ &quot;Positive&quot;;[Red]\ &quot;Negative&quot;;&quot;...&quot;;&quot;N/A&quot;"/>
+    <numFmt numFmtId="200" formatCode="_-* #,##0\ &quot;DM&quot;_-;\-* #,##0\ &quot;DM&quot;_-;_-* &quot;-&quot;\ &quot;DM&quot;_-;_-@_-"/>
+    <numFmt numFmtId="201" formatCode="_-* #,##0.00\ &quot;DM&quot;_-;\-* #,##0.00\ &quot;DM&quot;_-;_-* &quot;-&quot;??\ &quot;DM&quot;_-;_-@_-"/>
+    <numFmt numFmtId="202" formatCode="_-* #,##0\ &quot;zł&quot;_-;\-* #,##0\ &quot;zł&quot;_-;_-* &quot;-&quot;\ &quot;zł&quot;_-;_-@_-"/>
+    <numFmt numFmtId="203" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    <numFmt numFmtId="204" formatCode="#,##0_);[Red]\(#,##0\);\ \ \ \ \ "/>
+    <numFmt numFmtId="205" formatCode="0.0%_);[Red]\(0.0%\)"/>
+    <numFmt numFmtId="206" formatCode="&quot;$&quot;#,##0_);&quot;$&quot;\(#,##0\);\-\ \-"/>
+    <numFmt numFmtId="207" formatCode="_(&quot;R$ &quot;* #.,00_);_(&quot;R$ &quot;* (#.,00);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="99">
     <font>
@@ -1875,10 +1886,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -2092,14 +2103,14 @@
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyProtection="1">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyProtection="1">
+    <xf numFmtId="180" fontId="30" fillId="0" borderId="0" applyProtection="1">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="12"/>
@@ -2118,14 +2129,14 @@
     <xf numFmtId="1" fontId="35" fillId="0" borderId="0" applyProtection="1">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0"/>
@@ -2142,7 +2153,7 @@
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="35" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2156,40 +2167,40 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="183" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="41" fillId="0" borderId="36" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="32" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="184" fontId="32" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="17" fontId="42" fillId="0" borderId="37"/>
     <xf numFmtId="17" fontId="42" fillId="0" borderId="37"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="185" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="38"/>
-    <xf numFmtId="177" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="187" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="188" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="189" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="0" applyProtection="1">
+    <xf numFmtId="190" fontId="24" fillId="0" borderId="0" applyProtection="1">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="0" applyProtection="1">
+    <xf numFmtId="190" fontId="24" fillId="0" borderId="0" applyProtection="1">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="13" fontId="50" fillId="0" borderId="0" applyProtection="1">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="174" fontId="51" fillId="0" borderId="39"/>
+    <xf numFmtId="184" fontId="51" fillId="0" borderId="39"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
     <xf numFmtId="38" fontId="25" fillId="39" borderId="0"/>
-    <xf numFmtId="181" fontId="52" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="191" fontId="52" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -2261,15 +2272,15 @@
     <xf numFmtId="40" fontId="61" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="182" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="62" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="192" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="193" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="194" fontId="62" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0"/>
     <xf numFmtId="37" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="195" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="195" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
@@ -2972,10 +2983,10 @@
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="32" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="196" fontId="32" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="78" fillId="44" borderId="0"/>
+    <xf numFmtId="197" fontId="78" fillId="44" borderId="0"/>
     <xf numFmtId="9" fontId="79" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0"/>
@@ -3000,7 +3011,7 @@
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="79" fillId="0" borderId="0"/>
-    <xf numFmtId="188" fontId="32" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="198" fontId="32" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="80" fillId="45" borderId="43" applyAlignment="1">
@@ -3021,7 +3032,7 @@
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="83" fillId="46" borderId="0"/>
-    <xf numFmtId="170" fontId="84" fillId="47" borderId="0" applyProtection="1">
+    <xf numFmtId="180" fontId="84" fillId="47" borderId="0" applyProtection="1">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -3037,7 +3048,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="189" fontId="88" fillId="0" borderId="44" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="88" fillId="0" borderId="44" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3073,30 +3084,30 @@
     <xf numFmtId="43" fontId="79" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="192" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="193" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="201" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="203" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="89" fillId="48" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="32" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="184" fontId="32" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="49" borderId="0"/>
-    <xf numFmtId="194" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="194" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="195" fontId="24" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="204" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="204" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="24" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="195" fontId="24" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="205" fontId="24" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="196" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="196" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="206" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="206" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3105,7 +3116,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3920,6 +3931,42 @@
     <xf numFmtId="164" fontId="19" fillId="35" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="95" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="95" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="50" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3934,6 +3981,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="207" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="207" fontId="95" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
@@ -5218,6 +5274,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -5237,6 +5300,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="206" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -5244,15 +5318,25 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="196" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5397,9 +5481,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.5999633777886288"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="206" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -5425,6 +5541,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -5452,14 +5575,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="206" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="196" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5492,6 +5622,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.5999633777886288"/>
         </patternFill>
       </fill>
@@ -5518,15 +5662,22 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="206" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF00B050"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="196" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <fill>
@@ -5566,6 +5717,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -5580,7 +5738,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5592,6 +5764,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="206" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -5613,15 +5796,11 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="196" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5652,6 +5831,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="206" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -5661,6 +5851,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -5675,7 +5872,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5687,6 +5898,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="206" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -5708,15 +5930,11 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="196" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5756,6 +5974,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -5770,20 +5995,30 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="196" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5842,15 +6077,18 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="196" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5862,6 +6100,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -5876,6 +6121,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.5999633777886288"/>
         </patternFill>
       </fill>
@@ -5909,6 +6161,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="206" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -5967,6 +6230,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.5999633777886288"/>
         </patternFill>
       </fill>
@@ -5995,7 +6279,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6016,9 +6314,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="206" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -6105,17 +6435,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="196" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -6228,6 +6547,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="206" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -6265,6 +6595,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -6279,20 +6616,30 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="196" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -6379,6 +6726,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="206" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -6491,17 +6849,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="196" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -6532,13 +6879,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -6560,304 +6900,20 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="3" tint="0.5999633777886288"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="206" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="196" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="196" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <fill>
@@ -14935,7 +14991,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
@@ -15039,7 +15095,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -15229,7 +15285,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
@@ -15333,7 +15389,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -15523,7 +15579,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
@@ -15627,7 +15683,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -15712,7 +15768,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -15825,7 +15881,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
@@ -15929,7 +15985,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -16119,7 +16175,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
@@ -16223,7 +16279,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -16413,7 +16469,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
@@ -16517,7 +16573,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -16707,7 +16763,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
@@ -16811,7 +16867,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -17001,7 +17057,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
@@ -17105,7 +17161,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -17303,7 +17359,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
@@ -17407,7 +17463,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -17597,7 +17653,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
@@ -17701,7 +17757,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -17891,7 +17947,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
@@ -17995,7 +18051,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -18185,7 +18241,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
@@ -18289,7 +18345,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -19534,10 +19590,10 @@
       <c r="Q2" s="49" t="n"/>
     </row>
     <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="C3" s="300" t="n"/>
-      <c r="D3" s="301" t="n"/>
-      <c r="E3" s="301" t="n"/>
-      <c r="F3" s="301" t="n"/>
+      <c r="C3" s="312" t="n"/>
+      <c r="D3" s="313" t="n"/>
+      <c r="E3" s="313" t="n"/>
+      <c r="F3" s="313" t="n"/>
     </row>
     <row r="4">
       <c r="C4" s="42" t="inlineStr">
@@ -19733,12 +19789,12 @@
       <c r="Q10" s="30" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C11" s="298" t="inlineStr">
+      <c r="C11" s="310" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="D11" s="299" t="n"/>
+      <c r="D11" s="311" t="n"/>
       <c r="F11" s="37" t="inlineStr">
         <is>
           <t>ALMOXARIFADO</t>
@@ -21371,10 +21427,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" priority="470" operator="lessThan" dxfId="25">
+    <cfRule type="cellIs" priority="469" operator="greaterThan" dxfId="25">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="469" operator="greaterThan" dxfId="24">
+    <cfRule type="cellIs" priority="470" operator="lessThan" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21473,10 +21529,10 @@
       <c r="Q2" s="49" t="n"/>
     </row>
     <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="C3" s="300" t="n"/>
-      <c r="D3" s="301" t="n"/>
-      <c r="E3" s="301" t="n"/>
-      <c r="F3" s="301" t="n"/>
+      <c r="C3" s="312" t="n"/>
+      <c r="D3" s="313" t="n"/>
+      <c r="E3" s="313" t="n"/>
+      <c r="F3" s="313" t="n"/>
     </row>
     <row r="4">
       <c r="C4" s="42" t="inlineStr">
@@ -21672,12 +21728,12 @@
       <c r="Q10" s="30" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C11" s="298" t="inlineStr">
+      <c r="C11" s="310" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="D11" s="299" t="n"/>
+      <c r="D11" s="311" t="n"/>
       <c r="F11" s="37" t="inlineStr">
         <is>
           <t>ALMOXARIFADO</t>
@@ -23456,14 +23512,14 @@
     <mergeCell ref="C3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:D76 F18:G76 I18:U76">
-    <cfRule type="expression" priority="11" dxfId="1">
-      <formula>IF($B18="F",1,0)</formula>
-    </cfRule>
     <cfRule type="expression" priority="9" dxfId="3">
       <formula>IF($B18="NR",1,0)</formula>
     </cfRule>
     <cfRule type="expression" priority="10" dxfId="2">
       <formula>IF($B18="P",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="11" dxfId="1">
+      <formula>IF($B18="F",1,0)</formula>
     </cfRule>
     <cfRule type="expression" priority="12" dxfId="0">
       <formula>IF($B18="C",1,0)</formula>
@@ -23484,14 +23540,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" priority="98" operator="lessThan" dxfId="25">
+    <cfRule type="cellIs" priority="97" operator="greaterThan" dxfId="25">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="97" operator="greaterThan" dxfId="24">
+    <cfRule type="cellIs" priority="98" operator="lessThan" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H77">
+    <cfRule type="expression" priority="1" dxfId="3">
+      <formula>IF($B18="NR",1,0)</formula>
+    </cfRule>
     <cfRule type="expression" priority="2" dxfId="2">
       <formula>IF($B18="P",1,0)</formula>
     </cfRule>
@@ -23500,9 +23559,6 @@
     </cfRule>
     <cfRule type="expression" priority="4" dxfId="0">
       <formula>IF($B18="C",1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="1" dxfId="3">
-      <formula>IF($B18="NR",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
@@ -23572,10 +23628,10 @@
       <c r="Q2" s="49" t="n"/>
     </row>
     <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="C3" s="300" t="n"/>
-      <c r="D3" s="301" t="n"/>
-      <c r="E3" s="301" t="n"/>
-      <c r="F3" s="301" t="n"/>
+      <c r="C3" s="312" t="n"/>
+      <c r="D3" s="313" t="n"/>
+      <c r="E3" s="313" t="n"/>
+      <c r="F3" s="313" t="n"/>
     </row>
     <row r="4">
       <c r="C4" s="42" t="inlineStr">
@@ -23771,12 +23827,12 @@
       <c r="Q10" s="30" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C11" s="298" t="inlineStr">
+      <c r="C11" s="310" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="D11" s="299" t="n"/>
+      <c r="D11" s="311" t="n"/>
       <c r="F11" s="37" t="inlineStr">
         <is>
           <t>ALMOXARIFADO</t>
@@ -25627,9 +25683,6 @@
     <mergeCell ref="C3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="E18:E78">
-    <cfRule type="expression" priority="12" dxfId="0">
-      <formula>IF($B18="C",1,0)</formula>
-    </cfRule>
     <cfRule type="expression" priority="9" dxfId="3">
       <formula>IF($B18="NR",1,0)</formula>
     </cfRule>
@@ -25639,12 +25692,15 @@
     <cfRule type="expression" priority="11" dxfId="1">
       <formula>IF($B18="F",1,0)</formula>
     </cfRule>
+    <cfRule type="expression" priority="12" dxfId="0">
+      <formula>IF($B18="C",1,0)</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" priority="102" operator="lessThan" dxfId="25">
+    <cfRule type="cellIs" priority="101" operator="greaterThan" dxfId="25">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="101" operator="greaterThan" dxfId="24">
+    <cfRule type="cellIs" priority="102" operator="lessThan" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25663,6 +25719,9 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:K20">
+    <cfRule type="expression" priority="1" dxfId="3">
+      <formula>IF($B20="NR",1,0)</formula>
+    </cfRule>
     <cfRule type="expression" priority="2" dxfId="2">
       <formula>IF($B20="P",1,0)</formula>
     </cfRule>
@@ -25671,9 +25730,6 @@
     </cfRule>
     <cfRule type="expression" priority="4" dxfId="0">
       <formula>IF($B20="C",1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="1" dxfId="3">
-      <formula>IF($B20="NR",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:D77 F18:G77 I18:U19">
@@ -25785,10 +25841,10 @@
       <c r="Q2" s="49" t="n"/>
     </row>
     <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="C3" s="300" t="n"/>
-      <c r="D3" s="301" t="n"/>
-      <c r="E3" s="301" t="n"/>
-      <c r="F3" s="301" t="n"/>
+      <c r="C3" s="312" t="n"/>
+      <c r="D3" s="313" t="n"/>
+      <c r="E3" s="313" t="n"/>
+      <c r="F3" s="313" t="n"/>
     </row>
     <row r="4">
       <c r="C4" s="42" t="inlineStr">
@@ -25984,12 +26040,12 @@
       <c r="Q10" s="30" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C11" s="298" t="inlineStr">
+      <c r="C11" s="310" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="D11" s="299" t="n"/>
+      <c r="D11" s="311" t="n"/>
       <c r="F11" s="37" t="inlineStr">
         <is>
           <t>ALMOXARIFADO</t>
@@ -27644,10 +27700,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" priority="90" operator="lessThan" dxfId="25">
+    <cfRule type="cellIs" priority="89" operator="greaterThan" dxfId="25">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="89" operator="greaterThan" dxfId="24">
+    <cfRule type="cellIs" priority="90" operator="lessThan" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27719,12 +27775,12 @@
       <c r="U1" s="113" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="302" t="inlineStr">
+      <c r="B2" s="314" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="C2" s="303" t="n"/>
+      <c r="C2" s="315" t="n"/>
       <c r="D2" s="101" t="n"/>
       <c r="E2" s="102" t="n"/>
       <c r="F2" s="103" t="n"/>
@@ -27734,8 +27790,8 @@
       <c r="J2" s="104" t="n"/>
       <c r="K2" s="104" t="n"/>
       <c r="L2" s="104" t="n"/>
-      <c r="M2" s="305" t="n"/>
-      <c r="N2" s="305" t="n"/>
+      <c r="M2" s="320" t="n"/>
+      <c r="N2" s="320" t="n"/>
       <c r="O2" s="104" t="n"/>
       <c r="P2" s="104" t="n"/>
       <c r="Q2" s="104" t="n"/>
@@ -27760,8 +27816,8 @@
       <c r="J3" s="104" t="n"/>
       <c r="K3" s="104" t="n"/>
       <c r="L3" s="104" t="n"/>
-      <c r="M3" s="305" t="n"/>
-      <c r="N3" s="305" t="n"/>
+      <c r="M3" s="320" t="n"/>
+      <c r="N3" s="320" t="n"/>
       <c r="O3" s="104" t="n"/>
       <c r="P3" s="104" t="n"/>
       <c r="Q3" s="104" t="n"/>
@@ -27786,8 +27842,8 @@
       <c r="J4" s="104" t="n"/>
       <c r="K4" s="104" t="n"/>
       <c r="L4" s="104" t="n"/>
-      <c r="M4" s="305" t="n"/>
-      <c r="N4" s="305" t="n"/>
+      <c r="M4" s="320" t="n"/>
+      <c r="N4" s="320" t="n"/>
       <c r="O4" s="104" t="n"/>
       <c r="P4" s="104" t="n"/>
       <c r="Q4" s="104" t="n"/>
@@ -27812,8 +27868,8 @@
       <c r="J5" s="104" t="n"/>
       <c r="K5" s="104" t="n"/>
       <c r="L5" s="104" t="n"/>
-      <c r="M5" s="305" t="n"/>
-      <c r="N5" s="305" t="n"/>
+      <c r="M5" s="320" t="n"/>
+      <c r="N5" s="320" t="n"/>
       <c r="O5" s="104" t="n"/>
       <c r="P5" s="104" t="n"/>
       <c r="Q5" s="104" t="n"/>
@@ -27834,8 +27890,8 @@
       <c r="J6" s="104" t="n"/>
       <c r="K6" s="104" t="n"/>
       <c r="L6" s="104" t="n"/>
-      <c r="M6" s="305" t="n"/>
-      <c r="N6" s="305" t="n"/>
+      <c r="M6" s="320" t="n"/>
+      <c r="N6" s="320" t="n"/>
       <c r="O6" s="104" t="n"/>
       <c r="P6" s="104" t="n"/>
       <c r="Q6" s="104" t="n"/>
@@ -27845,12 +27901,12 @@
       <c r="U6" s="106" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B7" s="304" t="inlineStr">
+      <c r="B7" s="316" t="inlineStr">
         <is>
           <t>TOTAL BACKLOG</t>
         </is>
       </c>
-      <c r="C7" s="299" t="n"/>
+      <c r="C7" s="311" t="n"/>
       <c r="D7" s="115">
         <f>SUM(D10:D155)</f>
         <v/>
@@ -28049,10 +28105,10 @@
           <t>ALTO</t>
         </is>
       </c>
-      <c r="M10" s="306" t="n">
+      <c r="M10" s="321" t="n">
         <v>63303</v>
       </c>
-      <c r="N10" s="306" t="n">
+      <c r="N10" s="321" t="n">
         <v>25214</v>
       </c>
       <c r="O10" s="295" t="n"/>
@@ -28124,10 +28180,10 @@
           <t>ALTO</t>
         </is>
       </c>
-      <c r="M11" s="306" t="n">
+      <c r="M11" s="321" t="n">
         <v>63303</v>
       </c>
-      <c r="N11" s="306" t="n">
+      <c r="N11" s="321" t="n">
         <v>25214</v>
       </c>
       <c r="O11" s="295" t="n"/>
@@ -28199,10 +28255,10 @@
           <t>ALTO</t>
         </is>
       </c>
-      <c r="M12" s="306" t="n">
+      <c r="M12" s="321" t="n">
         <v>63303</v>
       </c>
-      <c r="N12" s="306" t="n">
+      <c r="N12" s="321" t="n">
         <v>25214</v>
       </c>
       <c r="O12" s="295" t="n"/>
@@ -28275,10 +28331,10 @@
           <t>MEDIO</t>
         </is>
       </c>
-      <c r="M13" s="306" t="n">
+      <c r="M13" s="321" t="n">
         <v>63303</v>
       </c>
-      <c r="N13" s="306" t="n">
+      <c r="N13" s="321" t="n">
         <v>25214</v>
       </c>
       <c r="O13" s="295" t="n"/>
@@ -28311,8 +28367,8 @@
       <c r="J14" s="295" t="n"/>
       <c r="K14" s="295" t="n"/>
       <c r="L14" s="295" t="n"/>
-      <c r="M14" s="306" t="n"/>
-      <c r="N14" s="306" t="n"/>
+      <c r="M14" s="321" t="n"/>
+      <c r="N14" s="321" t="n"/>
       <c r="O14" s="295" t="n"/>
       <c r="P14" s="295" t="n"/>
       <c r="Q14" s="295" t="n"/>
@@ -31434,9 +31490,6 @@
     <mergeCell ref="B7:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2 B3:U6 D2:U2 H111 H113 H115:H132 H134:H138 L75:L143">
-    <cfRule type="expression" priority="632" dxfId="0">
-      <formula>IF($B2="C",1,0)</formula>
-    </cfRule>
     <cfRule type="expression" priority="629" dxfId="3">
       <formula>IF($B2="NR",1,0)</formula>
     </cfRule>
@@ -31445,6 +31498,9 @@
     </cfRule>
     <cfRule type="expression" priority="631" dxfId="1">
       <formula>IF($B2="F",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="632" dxfId="0">
+      <formula>IF($B2="C",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:U14">
@@ -31869,10 +31925,10 @@
       <c r="Q2" s="49" t="n"/>
     </row>
     <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="C3" s="300" t="n"/>
-      <c r="D3" s="301" t="n"/>
-      <c r="E3" s="301" t="n"/>
-      <c r="F3" s="301" t="n"/>
+      <c r="C3" s="312" t="n"/>
+      <c r="D3" s="313" t="n"/>
+      <c r="E3" s="313" t="n"/>
+      <c r="F3" s="313" t="n"/>
     </row>
     <row r="4">
       <c r="C4" s="42" t="inlineStr">
@@ -32068,12 +32124,12 @@
       <c r="Q10" s="30" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C11" s="298" t="inlineStr">
+      <c r="C11" s="310" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="D11" s="299" t="n"/>
+      <c r="D11" s="311" t="n"/>
       <c r="F11" s="37" t="inlineStr">
         <is>
           <t>ALMOXARIFADO</t>
@@ -33862,6 +33918,9 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:U18">
+    <cfRule type="expression" priority="1" dxfId="3">
+      <formula>IF($B18="NR",1,0)</formula>
+    </cfRule>
     <cfRule type="expression" priority="2" dxfId="2">
       <formula>IF($B18="P",1,0)</formula>
     </cfRule>
@@ -33870,9 +33929,6 @@
     </cfRule>
     <cfRule type="expression" priority="4" dxfId="0">
       <formula>IF($B18="C",1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="1" dxfId="3">
-      <formula>IF($B18="NR",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:E78">
@@ -33890,10 +33946,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" priority="86" operator="lessThan" dxfId="25">
+    <cfRule type="cellIs" priority="85" operator="greaterThan" dxfId="25">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="85" operator="greaterThan" dxfId="24">
+    <cfRule type="cellIs" priority="86" operator="lessThan" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33978,10 +34034,10 @@
       <c r="Q2" s="49" t="n"/>
     </row>
     <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="C3" s="300" t="n"/>
-      <c r="D3" s="301" t="n"/>
-      <c r="E3" s="301" t="n"/>
-      <c r="F3" s="301" t="n"/>
+      <c r="C3" s="312" t="n"/>
+      <c r="D3" s="313" t="n"/>
+      <c r="E3" s="313" t="n"/>
+      <c r="F3" s="313" t="n"/>
     </row>
     <row r="4">
       <c r="C4" s="42" t="inlineStr">
@@ -34177,12 +34233,12 @@
       <c r="Q10" s="30" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C11" s="298" t="inlineStr">
+      <c r="C11" s="310" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="D11" s="299" t="n"/>
+      <c r="D11" s="311" t="n"/>
       <c r="F11" s="37" t="inlineStr">
         <is>
           <t>ALMOXARIFADO</t>
@@ -36141,20 +36197,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:U18">
-    <cfRule type="expression" priority="11" dxfId="1">
-      <formula>IF($B18="F",1,0)</formula>
-    </cfRule>
     <cfRule type="expression" priority="9" dxfId="3">
       <formula>IF($B18="NR",1,0)</formula>
     </cfRule>
     <cfRule type="expression" priority="10" dxfId="2">
       <formula>IF($B18="P",1,0)</formula>
     </cfRule>
+    <cfRule type="expression" priority="11" dxfId="1">
+      <formula>IF($B18="F",1,0)</formula>
+    </cfRule>
     <cfRule type="expression" priority="12" dxfId="0">
       <formula>IF($B18="C",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:U21">
+    <cfRule type="expression" priority="1" dxfId="3">
+      <formula>IF($B20="NR",1,0)</formula>
+    </cfRule>
     <cfRule type="expression" priority="2" dxfId="2">
       <formula>IF($B20="P",1,0)</formula>
     </cfRule>
@@ -36163,9 +36222,6 @@
     </cfRule>
     <cfRule type="expression" priority="4" dxfId="0">
       <formula>IF($B20="C",1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="1" dxfId="3">
-      <formula>IF($B20="NR",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:E78">
@@ -36183,10 +36239,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" priority="94" operator="lessThan" dxfId="25">
+    <cfRule type="cellIs" priority="93" operator="greaterThan" dxfId="25">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="93" operator="greaterThan" dxfId="24">
+    <cfRule type="cellIs" priority="94" operator="lessThan" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36285,10 +36341,10 @@
       <c r="Q2" s="49" t="n"/>
     </row>
     <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="C3" s="300" t="n"/>
-      <c r="D3" s="301" t="n"/>
-      <c r="E3" s="301" t="n"/>
-      <c r="F3" s="301" t="n"/>
+      <c r="C3" s="312" t="n"/>
+      <c r="D3" s="313" t="n"/>
+      <c r="E3" s="313" t="n"/>
+      <c r="F3" s="313" t="n"/>
     </row>
     <row r="4">
       <c r="C4" s="42" t="inlineStr">
@@ -36484,12 +36540,12 @@
       <c r="Q10" s="30" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C11" s="298" t="inlineStr">
+      <c r="C11" s="310" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="D11" s="299" t="n"/>
+      <c r="D11" s="311" t="n"/>
       <c r="F11" s="37" t="inlineStr">
         <is>
           <t>ALMOXARIFADO</t>
@@ -38506,22 +38562,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" priority="106" operator="lessThan" dxfId="25">
+    <cfRule type="cellIs" priority="105" operator="greaterThan" dxfId="25">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="105" operator="greaterThan" dxfId="24">
+    <cfRule type="cellIs" priority="106" operator="lessThan" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H79">
-    <cfRule type="expression" priority="31" dxfId="1">
-      <formula>IF($B22="F",1,0)</formula>
-    </cfRule>
     <cfRule type="expression" priority="29" dxfId="3">
       <formula>IF($B22="NR",1,0)</formula>
     </cfRule>
     <cfRule type="expression" priority="30" dxfId="2">
       <formula>IF($B22="P",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="31" dxfId="1">
+      <formula>IF($B22="F",1,0)</formula>
     </cfRule>
     <cfRule type="expression" priority="32" dxfId="0">
       <formula>IF($B22="C",1,0)</formula>
@@ -38608,10 +38664,10 @@
       <c r="Q2" s="49" t="n"/>
     </row>
     <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="C3" s="300" t="n"/>
-      <c r="D3" s="301" t="n"/>
-      <c r="E3" s="301" t="n"/>
-      <c r="F3" s="301" t="n"/>
+      <c r="C3" s="312" t="n"/>
+      <c r="D3" s="313" t="n"/>
+      <c r="E3" s="313" t="n"/>
+      <c r="F3" s="313" t="n"/>
     </row>
     <row r="4">
       <c r="C4" s="42" t="inlineStr">
@@ -38807,12 +38863,12 @@
       <c r="Q10" s="30" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C11" s="298" t="inlineStr">
+      <c r="C11" s="310" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="D11" s="299" t="n"/>
+      <c r="D11" s="311" t="n"/>
       <c r="F11" s="37" t="inlineStr">
         <is>
           <t>ALMOXARIFADO</t>
@@ -40847,10 +40903,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" priority="146" operator="lessThan" dxfId="25">
+    <cfRule type="cellIs" priority="145" operator="greaterThan" dxfId="25">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="145" operator="greaterThan" dxfId="24">
+    <cfRule type="cellIs" priority="146" operator="lessThan" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40911,10 +40967,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:U257"/>
+  <dimension ref="B2:V257"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="A20:XFD20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A33" sqref="A21:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -40963,10 +41019,10 @@
       <c r="Q2" s="49" t="n"/>
     </row>
     <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="C3" s="300" t="n"/>
-      <c r="D3" s="301" t="n"/>
-      <c r="E3" s="301" t="n"/>
-      <c r="F3" s="301" t="n"/>
+      <c r="C3" s="312" t="n"/>
+      <c r="D3" s="313" t="n"/>
+      <c r="E3" s="313" t="n"/>
+      <c r="F3" s="313" t="n"/>
     </row>
     <row r="4">
       <c r="C4" s="42" t="inlineStr">
@@ -41162,12 +41218,12 @@
       <c r="Q10" s="30" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C11" s="298" t="inlineStr">
+      <c r="C11" s="310" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="D11" s="299" t="n"/>
+      <c r="D11" s="311" t="n"/>
       <c r="F11" s="37" t="inlineStr">
         <is>
           <t>ALMOXARIFADO</t>
@@ -41627,7 +41683,7 @@
     <row r="21">
       <c r="B21" s="27" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C21" s="135" t="inlineStr">
@@ -41635,23 +41691,17 @@
           <t>TOX</t>
         </is>
       </c>
-      <c r="D21" s="54" t="n">
+      <c r="D21" s="317" t="n">
         <v>455.22</v>
       </c>
-      <c r="E21" s="21" t="inlineStr">
-        <is>
-          <t>07/06/23</t>
-        </is>
-      </c>
+      <c r="E21" s="21" t="n"/>
       <c r="F21" s="20" t="inlineStr">
         <is>
           <t>MANGUEIRA(ORC 326971)</t>
         </is>
       </c>
-      <c r="G21" s="14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G21" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="H21" s="14" t="n"/>
       <c r="I21" s="15" t="n">
@@ -41672,10 +41722,8 @@
           <t>BAIXO</t>
         </is>
       </c>
-      <c r="M21" s="79" t="inlineStr">
-        <is>
-          <t>63303</t>
-        </is>
+      <c r="M21" s="79" t="n">
+        <v>63303</v>
       </c>
       <c r="N21" s="80" t="n">
         <v>25215</v>
@@ -41687,7 +41735,7 @@
       </c>
       <c r="R21" s="154" t="inlineStr">
         <is>
-          <t>30/07/23</t>
+          <t>04/07</t>
         </is>
       </c>
       <c r="S21" s="136" t="inlineStr">
@@ -41709,7 +41757,7 @@
     <row r="22">
       <c r="B22" s="27" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C22" s="135" t="inlineStr">
@@ -41717,23 +41765,17 @@
           <t>TOX</t>
         </is>
       </c>
-      <c r="D22" s="175" t="n">
+      <c r="D22" s="318" t="n">
         <v>455.22</v>
       </c>
-      <c r="E22" s="21" t="inlineStr">
-        <is>
-          <t>07/06/23</t>
-        </is>
-      </c>
+      <c r="E22" s="21" t="n"/>
       <c r="F22" s="20" t="inlineStr">
         <is>
           <t>MANGUEIRA(ORC 326971)</t>
         </is>
       </c>
-      <c r="G22" s="14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G22" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="H22" s="14" t="n"/>
       <c r="I22" s="142" t="n">
@@ -41754,10 +41796,8 @@
           <t>BAIXO</t>
         </is>
       </c>
-      <c r="M22" s="164" t="inlineStr">
-        <is>
-          <t>63303</t>
-        </is>
+      <c r="M22" s="164" t="n">
+        <v>63303</v>
       </c>
       <c r="N22" s="159" t="n">
         <v>25215</v>
@@ -41769,7 +41809,7 @@
       </c>
       <c r="R22" s="161" t="inlineStr">
         <is>
-          <t>30/07/23</t>
+          <t>04/07</t>
         </is>
       </c>
       <c r="S22" s="136" t="inlineStr">
@@ -41791,7 +41831,7 @@
     <row r="23">
       <c r="B23" s="27" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C23" s="135" t="inlineStr">
@@ -41799,23 +41839,17 @@
           <t>TOX</t>
         </is>
       </c>
-      <c r="D23" s="175" t="n">
+      <c r="D23" s="318" t="n">
         <v>455.22</v>
       </c>
-      <c r="E23" s="21" t="inlineStr">
-        <is>
-          <t>07/06/23</t>
-        </is>
-      </c>
+      <c r="E23" s="21" t="n"/>
       <c r="F23" s="20" t="inlineStr">
         <is>
           <t>MANGUEIRA(ORC 326971)</t>
         </is>
       </c>
-      <c r="G23" s="14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G23" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="H23" s="14" t="n"/>
       <c r="I23" s="142" t="n">
@@ -41836,10 +41870,8 @@
           <t>BAIXO</t>
         </is>
       </c>
-      <c r="M23" s="164" t="inlineStr">
-        <is>
-          <t>63303</t>
-        </is>
+      <c r="M23" s="164" t="n">
+        <v>63303</v>
       </c>
       <c r="N23" s="159" t="n">
         <v>25215</v>
@@ -41851,7 +41883,7 @@
       </c>
       <c r="R23" s="166" t="inlineStr">
         <is>
-          <t>30/07/23</t>
+          <t>04/07</t>
         </is>
       </c>
       <c r="S23" s="136" t="inlineStr">
@@ -41873,7 +41905,7 @@
     <row r="24">
       <c r="B24" s="27" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C24" s="135" t="inlineStr">
@@ -41881,23 +41913,17 @@
           <t>TOX</t>
         </is>
       </c>
-      <c r="D24" s="54" t="n">
+      <c r="D24" s="317" t="n">
         <v>455.22</v>
       </c>
-      <c r="E24" s="21" t="inlineStr">
-        <is>
-          <t>07/06/23</t>
-        </is>
-      </c>
+      <c r="E24" s="21" t="n"/>
       <c r="F24" s="20" t="inlineStr">
         <is>
           <t>MANGUEIRA(ORC 326971)</t>
         </is>
       </c>
-      <c r="G24" s="14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G24" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="H24" s="14" t="n"/>
       <c r="I24" s="15" t="n">
@@ -41918,10 +41944,8 @@
           <t>BAIXO</t>
         </is>
       </c>
-      <c r="M24" s="16" t="inlineStr">
-        <is>
-          <t>63303</t>
-        </is>
+      <c r="M24" s="16" t="n">
+        <v>63303</v>
       </c>
       <c r="N24" s="19" t="n">
         <v>25215</v>
@@ -41933,7 +41957,7 @@
       </c>
       <c r="R24" s="16" t="inlineStr">
         <is>
-          <t>30/07/23</t>
+          <t>04/07</t>
         </is>
       </c>
       <c r="S24" s="136" t="inlineStr">
@@ -41955,7 +41979,7 @@
     <row r="25">
       <c r="B25" s="27" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C25" s="135" t="inlineStr">
@@ -41963,23 +41987,17 @@
           <t>TOX</t>
         </is>
       </c>
-      <c r="D25" s="54" t="n">
+      <c r="D25" s="317" t="n">
         <v>455.22</v>
       </c>
-      <c r="E25" s="21" t="inlineStr">
-        <is>
-          <t>07/06/23</t>
-        </is>
-      </c>
+      <c r="E25" s="21" t="n"/>
       <c r="F25" s="20" t="inlineStr">
         <is>
           <t>MANGUEIRA(ORC 326971)</t>
         </is>
       </c>
-      <c r="G25" s="14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G25" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="H25" s="14" t="n"/>
       <c r="I25" s="15" t="n">
@@ -42000,10 +42018,8 @@
           <t>BAIXO</t>
         </is>
       </c>
-      <c r="M25" s="16" t="inlineStr">
-        <is>
-          <t>63303</t>
-        </is>
+      <c r="M25" s="16" t="n">
+        <v>63303</v>
       </c>
       <c r="N25" s="19" t="n">
         <v>25215</v>
@@ -42015,7 +42031,7 @@
       </c>
       <c r="R25" s="16" t="inlineStr">
         <is>
-          <t>30/07/23</t>
+          <t>04/07</t>
         </is>
       </c>
       <c r="S25" s="136" t="inlineStr">
@@ -42037,7 +42053,7 @@
     <row r="26">
       <c r="B26" s="27" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C26" s="135" t="inlineStr">
@@ -42045,23 +42061,17 @@
           <t>TOX</t>
         </is>
       </c>
-      <c r="D26" s="163" t="n">
+      <c r="D26" s="319" t="n">
         <v>455.22</v>
       </c>
-      <c r="E26" s="21" t="inlineStr">
-        <is>
-          <t>07/06/23</t>
-        </is>
-      </c>
+      <c r="E26" s="21" t="n"/>
       <c r="F26" s="20" t="inlineStr">
         <is>
           <t>MANGUEIRA(ORC 326971)</t>
         </is>
       </c>
-      <c r="G26" s="14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G26" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="H26" s="14" t="n"/>
       <c r="I26" s="15" t="n">
@@ -42082,10 +42092,8 @@
           <t>BAIXO</t>
         </is>
       </c>
-      <c r="M26" s="144" t="inlineStr">
-        <is>
-          <t>63303</t>
-        </is>
+      <c r="M26" s="144" t="n">
+        <v>63303</v>
       </c>
       <c r="N26" s="145" t="n">
         <v>25215</v>
@@ -42097,7 +42105,7 @@
       </c>
       <c r="R26" s="144" t="inlineStr">
         <is>
-          <t>30/07/23</t>
+          <t>04/07</t>
         </is>
       </c>
       <c r="S26" s="136" t="inlineStr">
@@ -42119,7 +42127,7 @@
     <row r="27">
       <c r="B27" s="27" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C27" s="135" t="inlineStr">
@@ -42127,23 +42135,17 @@
           <t>TOX</t>
         </is>
       </c>
-      <c r="D27" s="163" t="n">
+      <c r="D27" s="319" t="n">
         <v>455.22</v>
       </c>
-      <c r="E27" s="21" t="inlineStr">
-        <is>
-          <t>07/06/23</t>
-        </is>
-      </c>
+      <c r="E27" s="21" t="n"/>
       <c r="F27" s="20" t="inlineStr">
         <is>
           <t>MANGUEIRA(ORC 326971)</t>
         </is>
       </c>
-      <c r="G27" s="14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G27" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="H27" s="14" t="n"/>
       <c r="I27" s="15" t="n">
@@ -42164,10 +42166,8 @@
           <t>BAIXO</t>
         </is>
       </c>
-      <c r="M27" s="144" t="inlineStr">
-        <is>
-          <t>63303</t>
-        </is>
+      <c r="M27" s="144" t="n">
+        <v>63303</v>
       </c>
       <c r="N27" s="145" t="n">
         <v>25215</v>
@@ -42179,7 +42179,7 @@
       </c>
       <c r="R27" s="144" t="inlineStr">
         <is>
-          <t>30/07/23</t>
+          <t>04/07</t>
         </is>
       </c>
       <c r="S27" s="136" t="inlineStr">
@@ -42201,7 +42201,7 @@
     <row r="28">
       <c r="B28" s="167" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C28" s="138" t="inlineStr">
@@ -42209,23 +42209,17 @@
           <t>TOX</t>
         </is>
       </c>
-      <c r="D28" s="163" t="n">
+      <c r="D28" s="319" t="n">
         <v>455.22</v>
       </c>
-      <c r="E28" s="21" t="inlineStr">
-        <is>
-          <t>07/06/23</t>
-        </is>
-      </c>
+      <c r="E28" s="21" t="n"/>
       <c r="F28" s="140" t="inlineStr">
         <is>
           <t>MANGUEIRA(ORC 326971)</t>
         </is>
       </c>
-      <c r="G28" s="14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G28" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="H28" s="14" t="n"/>
       <c r="I28" s="142" t="n">
@@ -42246,10 +42240,8 @@
           <t>BAIXO</t>
         </is>
       </c>
-      <c r="M28" s="164" t="inlineStr">
-        <is>
-          <t>63303</t>
-        </is>
+      <c r="M28" s="164" t="n">
+        <v>63303</v>
       </c>
       <c r="N28" s="159" t="n">
         <v>25215</v>
@@ -42261,7 +42253,7 @@
       </c>
       <c r="R28" s="161" t="inlineStr">
         <is>
-          <t>30/07/23</t>
+          <t>04/07</t>
         </is>
       </c>
       <c r="S28" s="168" t="inlineStr">
@@ -42283,7 +42275,7 @@
     <row r="29">
       <c r="B29" s="27" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C29" s="135" t="inlineStr">
@@ -42291,23 +42283,17 @@
           <t>TOX</t>
         </is>
       </c>
-      <c r="D29" s="54" t="n">
+      <c r="D29" s="317" t="n">
         <v>455.22</v>
       </c>
-      <c r="E29" s="21" t="inlineStr">
-        <is>
-          <t>07/06/23</t>
-        </is>
-      </c>
+      <c r="E29" s="21" t="n"/>
       <c r="F29" s="20" t="inlineStr">
         <is>
           <t>MANGUEIRA(ORC 326971)</t>
         </is>
       </c>
-      <c r="G29" s="14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G29" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="H29" s="14" t="n"/>
       <c r="I29" s="15" t="n">
@@ -42328,10 +42314,8 @@
           <t>BAIXO</t>
         </is>
       </c>
-      <c r="M29" s="16" t="inlineStr">
-        <is>
-          <t>63303</t>
-        </is>
+      <c r="M29" s="16" t="n">
+        <v>63303</v>
       </c>
       <c r="N29" s="19" t="n">
         <v>25215</v>
@@ -42343,7 +42327,7 @@
       </c>
       <c r="R29" s="16" t="inlineStr">
         <is>
-          <t>30/07/23</t>
+          <t>04/07</t>
         </is>
       </c>
       <c r="S29" s="136" t="inlineStr">
@@ -42365,7 +42349,7 @@
     <row r="30">
       <c r="B30" s="27" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C30" s="135" t="inlineStr">
@@ -42373,23 +42357,17 @@
           <t>TOX</t>
         </is>
       </c>
-      <c r="D30" s="54" t="n">
+      <c r="D30" s="317" t="n">
         <v>455.22</v>
       </c>
-      <c r="E30" s="21" t="inlineStr">
-        <is>
-          <t>07/06/23</t>
-        </is>
-      </c>
+      <c r="E30" s="21" t="n"/>
       <c r="F30" s="20" t="inlineStr">
         <is>
           <t>MANGUEIRA(ORC 326971)</t>
         </is>
       </c>
-      <c r="G30" s="14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G30" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="H30" s="14" t="n"/>
       <c r="I30" s="15" t="n">
@@ -42410,10 +42388,8 @@
           <t>BAIXO</t>
         </is>
       </c>
-      <c r="M30" s="16" t="inlineStr">
-        <is>
-          <t>63303</t>
-        </is>
+      <c r="M30" s="16" t="n">
+        <v>63303</v>
       </c>
       <c r="N30" s="19" t="n">
         <v>25215</v>
@@ -42425,7 +42401,7 @@
       </c>
       <c r="R30" s="16" t="inlineStr">
         <is>
-          <t>30/07/23</t>
+          <t>04/07</t>
         </is>
       </c>
       <c r="S30" s="136" t="inlineStr">
@@ -42445,70 +42421,226 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="27" t="n"/>
-      <c r="C31" s="135" t="n"/>
-      <c r="D31" s="175" t="n"/>
+      <c r="B31" s="27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C31" s="135" t="inlineStr">
+        <is>
+          <t>TOX</t>
+        </is>
+      </c>
+      <c r="D31" s="318" t="n">
+        <v>455.22</v>
+      </c>
       <c r="E31" s="21" t="n"/>
-      <c r="F31" s="20" t="n"/>
-      <c r="G31" s="14" t="n"/>
+      <c r="F31" s="20" t="inlineStr">
+        <is>
+          <t>MANGUEIRA(ORC 326971)</t>
+        </is>
+      </c>
+      <c r="G31" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="H31" s="14" t="n"/>
-      <c r="I31" s="15" t="n"/>
-      <c r="J31" s="15" t="n"/>
-      <c r="K31" s="15" t="n"/>
-      <c r="L31" s="15" t="n"/>
-      <c r="M31" s="144" t="n"/>
-      <c r="N31" s="145" t="n"/>
+      <c r="I31" s="15" t="n">
+        <v>19861</v>
+      </c>
+      <c r="J31" s="15" t="inlineStr">
+        <is>
+          <t>LINHA GVV</t>
+        </is>
+      </c>
+      <c r="K31" s="15" t="inlineStr">
+        <is>
+          <t>FLVV10</t>
+        </is>
+      </c>
+      <c r="L31" s="15" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+      <c r="M31" s="144" t="n">
+        <v>63303</v>
+      </c>
+      <c r="N31" s="145" t="n">
+        <v>25215</v>
+      </c>
       <c r="O31" s="141" t="n"/>
       <c r="P31" s="142" t="n"/>
-      <c r="Q31" s="142" t="n"/>
-      <c r="R31" s="144" t="n"/>
-      <c r="S31" s="136" t="n"/>
-      <c r="T31" s="137" t="n"/>
-      <c r="U31" s="81" t="n"/>
+      <c r="Q31" s="142" t="n">
+        <v>270340</v>
+      </c>
+      <c r="R31" s="144" t="inlineStr">
+        <is>
+          <t>04/07</t>
+        </is>
+      </c>
+      <c r="S31" s="136" t="inlineStr">
+        <is>
+          <t>ADRIEL</t>
+        </is>
+      </c>
+      <c r="T31" s="137" t="inlineStr">
+        <is>
+          <t>BOTELHO</t>
+        </is>
+      </c>
+      <c r="U31" s="81" t="inlineStr">
+        <is>
+          <t>PREVISAO AGOSTO</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="B32" s="27" t="n"/>
-      <c r="C32" s="135" t="n"/>
-      <c r="D32" s="54" t="n"/>
+      <c r="B32" s="27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C32" s="135" t="inlineStr">
+        <is>
+          <t>TOX</t>
+        </is>
+      </c>
+      <c r="D32" s="317" t="n">
+        <v>455.22</v>
+      </c>
       <c r="E32" s="21" t="n"/>
-      <c r="F32" s="20" t="n"/>
-      <c r="G32" s="14" t="n"/>
+      <c r="F32" s="20" t="inlineStr">
+        <is>
+          <t>MANGUEIRA(ORC 326971)</t>
+        </is>
+      </c>
+      <c r="G32" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="H32" s="14" t="n"/>
-      <c r="I32" s="15" t="n"/>
-      <c r="J32" s="15" t="n"/>
-      <c r="K32" s="15" t="n"/>
-      <c r="L32" s="15" t="n"/>
-      <c r="M32" s="79" t="n"/>
-      <c r="N32" s="80" t="n"/>
+      <c r="I32" s="15" t="n">
+        <v>19861</v>
+      </c>
+      <c r="J32" s="15" t="inlineStr">
+        <is>
+          <t>LINHA GVV</t>
+        </is>
+      </c>
+      <c r="K32" s="15" t="inlineStr">
+        <is>
+          <t>FLVV10</t>
+        </is>
+      </c>
+      <c r="L32" s="15" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+      <c r="M32" s="79" t="n">
+        <v>63303</v>
+      </c>
+      <c r="N32" s="80" t="n">
+        <v>25215</v>
+      </c>
       <c r="O32" s="156" t="n"/>
       <c r="P32" s="15" t="n"/>
-      <c r="Q32" s="146" t="n"/>
-      <c r="R32" s="154" t="n"/>
-      <c r="S32" s="136" t="n"/>
-      <c r="T32" s="137" t="n"/>
-      <c r="U32" s="81" t="n"/>
+      <c r="Q32" s="146" t="n">
+        <v>270340</v>
+      </c>
+      <c r="R32" s="154" t="inlineStr">
+        <is>
+          <t>04/07</t>
+        </is>
+      </c>
+      <c r="S32" s="136" t="inlineStr">
+        <is>
+          <t>ADRIEL</t>
+        </is>
+      </c>
+      <c r="T32" s="137" t="inlineStr">
+        <is>
+          <t>BOTELHO</t>
+        </is>
+      </c>
+      <c r="U32" s="81" t="inlineStr">
+        <is>
+          <t>PREVISAO AGOSTO</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="B33" s="27" t="n"/>
-      <c r="C33" s="135" t="n"/>
-      <c r="D33" s="54" t="n"/>
+      <c r="B33" s="27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C33" s="135" t="inlineStr">
+        <is>
+          <t>TOX</t>
+        </is>
+      </c>
+      <c r="D33" s="317" t="n">
+        <v>455.22</v>
+      </c>
       <c r="E33" s="21" t="n"/>
-      <c r="F33" s="20" t="n"/>
-      <c r="G33" s="14" t="n"/>
+      <c r="F33" s="20" t="inlineStr">
+        <is>
+          <t>MANGUEIRA(ORC 326971)</t>
+        </is>
+      </c>
+      <c r="G33" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="H33" s="14" t="n"/>
-      <c r="I33" s="15" t="n"/>
-      <c r="J33" s="15" t="n"/>
-      <c r="K33" s="15" t="n"/>
-      <c r="L33" s="15" t="n"/>
-      <c r="M33" s="79" t="n"/>
-      <c r="N33" s="80" t="n"/>
+      <c r="I33" s="15" t="n">
+        <v>19861</v>
+      </c>
+      <c r="J33" s="15" t="inlineStr">
+        <is>
+          <t>LINHA GVV</t>
+        </is>
+      </c>
+      <c r="K33" s="15" t="inlineStr">
+        <is>
+          <t>FLVV10</t>
+        </is>
+      </c>
+      <c r="L33" s="15" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+      <c r="M33" s="79" t="n">
+        <v>63303</v>
+      </c>
+      <c r="N33" s="80" t="n">
+        <v>25215</v>
+      </c>
       <c r="O33" s="14" t="n"/>
       <c r="P33" s="146" t="n"/>
-      <c r="Q33" s="146" t="n"/>
-      <c r="R33" s="147" t="n"/>
-      <c r="S33" s="136" t="n"/>
-      <c r="T33" s="137" t="n"/>
-      <c r="U33" s="81" t="n"/>
+      <c r="Q33" s="146" t="n">
+        <v>270340</v>
+      </c>
+      <c r="R33" s="147" t="inlineStr">
+        <is>
+          <t>04/07</t>
+        </is>
+      </c>
+      <c r="S33" s="136" t="inlineStr">
+        <is>
+          <t>ADRIEL</t>
+        </is>
+      </c>
+      <c r="T33" s="137" t="inlineStr">
+        <is>
+          <t>BOTELHO</t>
+        </is>
+      </c>
+      <c r="U33" s="81" t="inlineStr">
+        <is>
+          <t>PREVISAO AGOSTO</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="B34" s="27" t="n"/>
@@ -43582,20 +43714,23 @@
     <mergeCell ref="C3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:D18 F18:G18 I18:U18">
-    <cfRule type="expression" priority="47" dxfId="1">
-      <formula>IF($B18="F",1,0)</formula>
-    </cfRule>
     <cfRule type="expression" priority="45" dxfId="3">
       <formula>IF($B18="NR",1,0)</formula>
     </cfRule>
     <cfRule type="expression" priority="46" dxfId="2">
       <formula>IF($B18="P",1,0)</formula>
     </cfRule>
+    <cfRule type="expression" priority="47" dxfId="1">
+      <formula>IF($B18="F",1,0)</formula>
+    </cfRule>
     <cfRule type="expression" priority="48" dxfId="0">
       <formula>IF($B18="C",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:D75 F20:G75 I20:U75">
+    <cfRule type="expression" priority="1" dxfId="3">
+      <formula>IF($B20="NR",1,0)</formula>
+    </cfRule>
     <cfRule type="expression" priority="2" dxfId="2">
       <formula>IF($B20="P",1,0)</formula>
     </cfRule>
@@ -43604,9 +43739,6 @@
     </cfRule>
     <cfRule type="expression" priority="4" dxfId="0">
       <formula>IF($B20="C",1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="1" dxfId="3">
-      <formula>IF($B20="NR",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:E19 G19:U19">
@@ -43655,21 +43787,21 @@
     <cfRule type="expression" priority="9" dxfId="3">
       <formula>IF($B19="NR",1,0)</formula>
     </cfRule>
+    <cfRule type="expression" priority="10" dxfId="2">
+      <formula>IF($B19="P",1,0)</formula>
+    </cfRule>
     <cfRule type="expression" priority="11" dxfId="1">
       <formula>IF($B19="F",1,0)</formula>
     </cfRule>
     <cfRule type="expression" priority="12" dxfId="0">
       <formula>IF($B19="C",1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="10" dxfId="2">
-      <formula>IF($B19="P",1,0)</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" priority="106" operator="lessThan" dxfId="25">
+    <cfRule type="cellIs" priority="105" operator="greaterThan" dxfId="25">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="105" operator="greaterThan" dxfId="24">
+    <cfRule type="cellIs" priority="106" operator="lessThan" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43740,10 +43872,10 @@
       <c r="Q2" s="49" t="n"/>
     </row>
     <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="C3" s="300" t="n"/>
-      <c r="D3" s="301" t="n"/>
-      <c r="E3" s="301" t="n"/>
-      <c r="F3" s="301" t="n"/>
+      <c r="C3" s="312" t="n"/>
+      <c r="D3" s="313" t="n"/>
+      <c r="E3" s="313" t="n"/>
+      <c r="F3" s="313" t="n"/>
     </row>
     <row r="4">
       <c r="C4" s="42" t="inlineStr">
@@ -43939,12 +44071,12 @@
       <c r="Q10" s="30" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C11" s="298" t="inlineStr">
+      <c r="C11" s="310" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="D11" s="299" t="n"/>
+      <c r="D11" s="311" t="n"/>
       <c r="F11" s="37" t="inlineStr">
         <is>
           <t>ALMOXARIFADO</t>
@@ -45657,10 +45789,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" priority="118" operator="lessThan" dxfId="25">
+    <cfRule type="cellIs" priority="117" operator="greaterThan" dxfId="25">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="117" operator="greaterThan" dxfId="24">
+    <cfRule type="cellIs" priority="118" operator="lessThan" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45731,10 +45863,10 @@
       <c r="Q2" s="49" t="n"/>
     </row>
     <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="C3" s="300" t="n"/>
-      <c r="D3" s="301" t="n"/>
-      <c r="E3" s="301" t="n"/>
-      <c r="F3" s="301" t="n"/>
+      <c r="C3" s="312" t="n"/>
+      <c r="D3" s="313" t="n"/>
+      <c r="E3" s="313" t="n"/>
+      <c r="F3" s="313" t="n"/>
     </row>
     <row r="4">
       <c r="C4" s="42" t="inlineStr">
@@ -45930,12 +46062,12 @@
       <c r="Q10" s="30" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C11" s="298" t="inlineStr">
+      <c r="C11" s="310" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="D11" s="299" t="n"/>
+      <c r="D11" s="311" t="n"/>
       <c r="F11" s="37" t="inlineStr">
         <is>
           <t>ALMOXARIFADO</t>
@@ -47822,14 +47954,14 @@
     <mergeCell ref="C3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:D76 F18:G76 I18:U76">
-    <cfRule type="expression" priority="11" dxfId="1">
-      <formula>IF($B18="F",1,0)</formula>
-    </cfRule>
     <cfRule type="expression" priority="9" dxfId="3">
       <formula>IF($B18="NR",1,0)</formula>
     </cfRule>
     <cfRule type="expression" priority="10" dxfId="2">
       <formula>IF($B18="P",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="11" dxfId="1">
+      <formula>IF($B18="F",1,0)</formula>
     </cfRule>
     <cfRule type="expression" priority="12" dxfId="0">
       <formula>IF($B18="C",1,0)</formula>
@@ -47850,14 +47982,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" priority="98" operator="lessThan" dxfId="25">
+    <cfRule type="cellIs" priority="97" operator="greaterThan" dxfId="25">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="97" operator="greaterThan" dxfId="24">
+    <cfRule type="cellIs" priority="98" operator="lessThan" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H77">
+    <cfRule type="expression" priority="1" dxfId="3">
+      <formula>IF($B18="NR",1,0)</formula>
+    </cfRule>
     <cfRule type="expression" priority="2" dxfId="2">
       <formula>IF($B18="P",1,0)</formula>
     </cfRule>
@@ -47866,9 +48001,6 @@
     </cfRule>
     <cfRule type="expression" priority="4" dxfId="0">
       <formula>IF($B18="C",1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="1" dxfId="3">
-      <formula>IF($B18="NR",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
@@ -47938,10 +48070,10 @@
       <c r="Q2" s="49" t="n"/>
     </row>
     <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="C3" s="300" t="n"/>
-      <c r="D3" s="301" t="n"/>
-      <c r="E3" s="301" t="n"/>
-      <c r="F3" s="301" t="n"/>
+      <c r="C3" s="312" t="n"/>
+      <c r="D3" s="313" t="n"/>
+      <c r="E3" s="313" t="n"/>
+      <c r="F3" s="313" t="n"/>
     </row>
     <row r="4">
       <c r="C4" s="42" t="inlineStr">
@@ -48137,12 +48269,12 @@
       <c r="Q10" s="30" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C11" s="298" t="inlineStr">
+      <c r="C11" s="310" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="D11" s="299" t="n"/>
+      <c r="D11" s="311" t="n"/>
       <c r="F11" s="37" t="inlineStr">
         <is>
           <t>ALMOXARIFADO</t>
@@ -49975,14 +50107,14 @@
     <mergeCell ref="C3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:D76 F18:G76 I18:U76">
-    <cfRule type="expression" priority="11" dxfId="1">
-      <formula>IF($B18="F",1,0)</formula>
-    </cfRule>
     <cfRule type="expression" priority="9" dxfId="3">
       <formula>IF($B18="NR",1,0)</formula>
     </cfRule>
     <cfRule type="expression" priority="10" dxfId="2">
       <formula>IF($B18="P",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="11" dxfId="1">
+      <formula>IF($B18="F",1,0)</formula>
     </cfRule>
     <cfRule type="expression" priority="12" dxfId="0">
       <formula>IF($B18="C",1,0)</formula>
@@ -50003,14 +50135,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" priority="110" operator="lessThan" dxfId="25">
+    <cfRule type="cellIs" priority="109" operator="greaterThan" dxfId="25">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="109" operator="greaterThan" dxfId="24">
+    <cfRule type="cellIs" priority="110" operator="lessThan" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H77">
+    <cfRule type="expression" priority="1" dxfId="3">
+      <formula>IF($B18="NR",1,0)</formula>
+    </cfRule>
     <cfRule type="expression" priority="2" dxfId="2">
       <formula>IF($B18="P",1,0)</formula>
     </cfRule>
@@ -50019,9 +50154,6 @@
     </cfRule>
     <cfRule type="expression" priority="4" dxfId="0">
       <formula>IF($B18="C",1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="1" dxfId="3">
-      <formula>IF($B18="NR",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
